--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://calibercollision-my.sharepoint.com/personal/calvin_skalla_calibercollision_com/Documents/Documents/CALVIN/Personal Exploring/GIT Repositories/TTK_Pushups/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_23F9262DC763716E543D342D8033D60E7452B2AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{627328D9-EFC4-4196-9172-EBD2F78ED4FE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="14">
   <si>
     <t>Tribal Member</t>
   </si>
@@ -56,40 +75,13 @@
   </si>
   <si>
     <t>Petey</t>
-  </si>
-  <si>
-    <t>2024-02-22 00:00:00</t>
-  </si>
-  <si>
-    <t>2024-02-23 00:00:00</t>
-  </si>
-  <si>
-    <t>2024-02-24 00:00:00</t>
-  </si>
-  <si>
-    <t>2024-02-25 00:00:00</t>
-  </si>
-  <si>
-    <t>2024-02-26 00:00:00</t>
-  </si>
-  <si>
-    <t>2024-02-27 00:00:00</t>
-  </si>
-  <si>
-    <t>2024-02-28 00:00:00</t>
-  </si>
-  <si>
-    <t>2024-02-29 00:00:00</t>
-  </si>
-  <si>
-    <t>2/24/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,9 +133,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -152,13 +148,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -196,7 +200,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -230,6 +234,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -264,9 +269,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,858 +445,786 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
+      <c r="B2" s="2">
+        <v>45344</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
+      <c r="B3" s="2">
+        <v>45344</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
+      <c r="B4" s="2">
+        <v>45344</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
+      <c r="B5" s="2">
+        <v>45344</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
+      <c r="B6" s="2">
+        <v>45344</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
+      <c r="B7" s="2">
+        <v>45344</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
+      <c r="B8" s="2">
+        <v>45344</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
+      <c r="B9" s="2">
+        <v>45344</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
+      <c r="B10" s="2">
+        <v>45344</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
+      <c r="B11" s="2">
+        <v>45344</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
+      <c r="B12" s="2">
+        <v>45344</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
-        <v>15</v>
+      <c r="B13" s="2">
+        <v>45345</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
+      <c r="B14" s="2">
+        <v>45345</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
+      <c r="B15" s="2">
+        <v>45345</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
+      <c r="B16" s="2">
+        <v>45345</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
+      <c r="B17" s="2">
+        <v>45345</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
-        <v>15</v>
+      <c r="B18" s="2">
+        <v>45345</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
-        <v>15</v>
+      <c r="B19" s="2">
+        <v>45345</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
-        <v>15</v>
+      <c r="B20" s="2">
+        <v>45345</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" t="s">
-        <v>15</v>
+      <c r="B21" s="2">
+        <v>45345</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" t="s">
-        <v>15</v>
+      <c r="B22" s="2">
+        <v>45345</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
-        <v>15</v>
+      <c r="B23" s="2">
+        <v>45345</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
-      <c r="B24" t="s">
-        <v>16</v>
+      <c r="B24" s="2">
+        <v>45346</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" t="s">
-        <v>16</v>
+      <c r="B25" s="2">
+        <v>45346</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B26" t="s">
-        <v>16</v>
+      <c r="B26" s="2">
+        <v>45346</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
+      <c r="B27" s="2">
+        <v>45346</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
-      <c r="B28" t="s">
-        <v>16</v>
+      <c r="B28" s="2">
+        <v>45346</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
-      <c r="B29" t="s">
-        <v>16</v>
+      <c r="B29" s="2">
+        <v>45346</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" t="s">
-        <v>16</v>
+      <c r="B30" s="2">
+        <v>45346</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
-      <c r="B31" t="s">
-        <v>16</v>
+      <c r="B31" s="2">
+        <v>45346</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B32" t="s">
-        <v>16</v>
+      <c r="B32" s="2">
+        <v>45346</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
-      <c r="B33" t="s">
-        <v>16</v>
+      <c r="B33" s="2">
+        <v>45346</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
-      <c r="B34" t="s">
-        <v>16</v>
+      <c r="B34" s="2">
+        <v>45346</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
-      <c r="B35" t="s">
-        <v>17</v>
+      <c r="B35" s="2">
+        <v>45347</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
-      <c r="B36" t="s">
-        <v>17</v>
+      <c r="B36" s="2">
+        <v>45347</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37" t="s">
-        <v>17</v>
+      <c r="B37" s="2">
+        <v>45347</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" t="s">
-        <v>17</v>
+      <c r="B38" s="2">
+        <v>45347</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
-      <c r="B39" t="s">
-        <v>17</v>
+      <c r="B39" s="2">
+        <v>45347</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
-      <c r="B40" t="s">
-        <v>17</v>
+      <c r="B40" s="2">
+        <v>45347</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
-      <c r="B41" t="s">
-        <v>17</v>
+      <c r="B41" s="2">
+        <v>45347</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
-      <c r="B42" t="s">
-        <v>17</v>
+      <c r="B42" s="2">
+        <v>45347</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B43" t="s">
-        <v>17</v>
+      <c r="B43" s="2">
+        <v>45347</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>12</v>
       </c>
-      <c r="B44" t="s">
-        <v>17</v>
+      <c r="B44" s="2">
+        <v>45347</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
-      <c r="B45" t="s">
-        <v>17</v>
+      <c r="B45" s="2">
+        <v>45347</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>9</v>
       </c>
-      <c r="B46" t="s">
-        <v>18</v>
+      <c r="B46" s="2">
+        <v>45348</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
-      <c r="B47" t="s">
-        <v>18</v>
+      <c r="B47" s="2">
+        <v>45348</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" t="s">
-        <v>18</v>
+      <c r="B48" s="2">
+        <v>45348</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>12</v>
       </c>
-      <c r="B49" t="s">
-        <v>18</v>
+      <c r="B49" s="2">
+        <v>45348</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>13</v>
       </c>
-      <c r="B50" t="s">
-        <v>18</v>
+      <c r="B50" s="2">
+        <v>45348</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
-      <c r="B51" t="s">
-        <v>18</v>
+      <c r="B51" s="2">
+        <v>45348</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
-      <c r="B52" t="s">
-        <v>18</v>
+      <c r="B52" s="2">
+        <v>45348</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
-      <c r="B53" t="s">
-        <v>18</v>
+      <c r="B53" s="2">
+        <v>45348</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
-      <c r="B54" t="s">
-        <v>19</v>
+      <c r="B54" s="2">
+        <v>45349</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
-      <c r="B55" t="s">
-        <v>19</v>
+      <c r="B55" s="2">
+        <v>45349</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>12</v>
       </c>
-      <c r="B56" t="s">
-        <v>19</v>
+      <c r="B56" s="2">
+        <v>45349</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>13</v>
       </c>
-      <c r="B57" t="s">
-        <v>19</v>
+      <c r="B57" s="2">
+        <v>45349</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>9</v>
       </c>
-      <c r="B58" t="s">
-        <v>19</v>
+      <c r="B58" s="2">
+        <v>45349</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>12</v>
       </c>
-      <c r="B59" t="s">
-        <v>20</v>
+      <c r="B59" s="2">
+        <v>45350</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
-      <c r="B60" t="s">
-        <v>20</v>
+      <c r="B60" s="2">
+        <v>45350</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>3</v>
       </c>
-      <c r="B61" t="s">
-        <v>20</v>
+      <c r="B61" s="2">
+        <v>45350</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>4</v>
       </c>
-      <c r="B62" t="s">
-        <v>20</v>
+      <c r="B62" s="2">
+        <v>45350</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
-      <c r="B63" t="s">
-        <v>20</v>
+      <c r="B63" s="2">
+        <v>45350</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>6</v>
       </c>
-      <c r="B64" t="s">
-        <v>21</v>
+      <c r="B64" s="2">
+        <v>45351</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>7</v>
       </c>
-      <c r="B65" t="s">
-        <v>21</v>
+      <c r="B65" s="2">
+        <v>45351</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>8</v>
       </c>
-      <c r="B66" t="s">
-        <v>21</v>
+      <c r="B66" s="2">
+        <v>45351</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
-      <c r="B67" t="s">
-        <v>21</v>
+      <c r="B67" s="2">
+        <v>45351</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>3</v>
       </c>
-      <c r="B68" t="s">
-        <v>21</v>
+      <c r="B68" s="2">
+        <v>45351</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>4</v>
       </c>
-      <c r="B69" t="s">
-        <v>21</v>
+      <c r="B69" s="2">
+        <v>45351</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
-      <c r="B70" t="s">
-        <v>21</v>
+      <c r="B70" s="2">
+        <v>45351</v>
       </c>
       <c r="C70">
         <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" t="s">
-        <v>22</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" t="s">
-        <v>22</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" t="s">
-        <v>22</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" t="s">
-        <v>22</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://calibercollision-my.sharepoint.com/personal/calvin_skalla_calibercollision_com/Documents/Documents/CALVIN/Personal Exploring/GIT Repositories/TTK_Pushups/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_23F9262DC763716E543D342D8033D60E7452B2AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{627328D9-EFC4-4196-9172-EBD2F78ED4FE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="15">
   <si>
     <t>Tribal Member</t>
   </si>
@@ -75,13 +56,19 @@
   </si>
   <si>
     <t>Petey</t>
+  </si>
+  <si>
+    <t>2024-02-25 00:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,36 +120,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +176,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -234,7 +210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -269,10 +244,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -445,30 +419,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="18.109375" style="2" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -479,7 +448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -490,7 +459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -501,7 +470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -509,10 +478,10 @@
         <v>45344</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -523,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -534,7 +503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -545,7 +514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -556,7 +525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -567,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -578,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -589,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -600,7 +569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -611,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -622,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -633,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -644,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -655,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -666,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -677,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -688,7 +657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -699,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -710,7 +679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -721,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -732,7 +701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -743,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -754,7 +723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -765,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -776,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -787,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -798,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -809,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -820,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -831,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -842,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -853,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -864,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -875,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -886,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -897,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -908,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -919,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -930,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -941,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -952,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -963,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -974,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -985,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -996,7 +965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -1007,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1018,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1029,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1040,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -1062,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -1073,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -1084,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -1095,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -1106,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -1117,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1128,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1172,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -1183,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -1205,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -1216,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1225,6 +1194,17 @@
       </c>
       <c r="C70">
         <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
